--- a/src/main/resources/excel/sel_cont/sel_template.xlsx
+++ b/src/main/resources/excel/sel_cont/sel_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\sel_cont\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71985320-0FDC-4F51-AFDE-2B038AF072C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144CD41A-2338-45A6-9E57-71F3BCF6BD38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="4170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7770" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>${test}</t>
   </si>
   <si>
-    <t>${hermano}</t>
-  </si>
-  <si>
     <t>${u1_col1}</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>${u1_col4}</t>
+  </si>
+  <si>
+    <t>${test2}</t>
   </si>
 </sst>
 </file>
@@ -371,8 +371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,19 +382,19 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -404,12 +404,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/sel_cont/sel_template.xlsx
+++ b/src/main/resources/excel/sel_cont/sel_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\sel_cont\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144CD41A-2338-45A6-9E57-71F3BCF6BD38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB1A05B-277E-4197-8FC7-A3C8095E2CE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="3090" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>${sup}</t>
-  </si>
-  <si>
-    <t>${test}</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>${u1_col1}</t>
   </si>
@@ -42,16 +36,10 @@
     <t>${u1_col5}</t>
   </si>
   <si>
-    <t>${u1_col7}</t>
-  </si>
-  <si>
     <t>${u1_col3}</t>
   </si>
   <si>
     <t>${u1_col4}</t>
-  </si>
-  <si>
-    <t>${test2}</t>
   </si>
 </sst>
 </file>
@@ -369,47 +357,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
